--- a/Payroll Analysis/ComparedResults/Full_Comparison.xlsx
+++ b/Payroll Analysis/ComparedResults/Full_Comparison.xlsx
@@ -11,6 +11,7 @@
     <sheet name="OperatorChanges" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="TripsComparison" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="HoursComparison" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LeaseComparison" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1389,4 +1390,355 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>PARTNER</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>PREVIOUS</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>LATEST</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CHANGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>AARON TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>BUFFINGTON TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>DIAMOND HILL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Fowler Senior Transit LLC</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>GET CARE TRANSIT LLC</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>HIGHER-SELF LLC</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>HUGO FAMILY TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>JORGE TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>MADE EAZY LLC</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>MONAI&amp;SON'S LLC</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>NEMIA CARE LLC</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>1180</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>NORTHCAL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>PEOPLE FIRST TRANSIT LLC</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>QUICK RIDES CA</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>REM Solutions LLC</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>1020</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>TRI VALLEY TRANSPORTATION INC.</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>416.72</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>416.72</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Transit LTM LLC</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Payroll Analysis/ComparedResults/Full_Comparison.xlsx
+++ b/Payroll Analysis/ComparedResults/Full_Comparison.xlsx
@@ -37,10 +37,10 @@
       <color rgb="00FFFFFF"/>
     </font>
     <font>
-      <color rgb="009C0006"/>
+      <color rgb="00006100"/>
     </font>
     <font>
-      <color rgb="00006100"/>
+      <color rgb="009C0006"/>
     </font>
   </fonts>
   <fills count="5">
@@ -58,14 +58,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -472,9 +472,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -512,17 +512,17 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>3130</v>
+        <v>2521</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>3074</v>
+        <v>2642</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>-56</v>
+        <v>121</v>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>Decreased</t>
+          <t>Increased</t>
         </is>
       </c>
     </row>
@@ -533,17 +533,17 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>2901.531</v>
+        <v>2647.991</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>2894.622</v>
+        <v>2791.271</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>-6.908999999999651</v>
+        <v>143.2800000000002</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Decreased</t>
+          <t>Increased</t>
         </is>
       </c>
     </row>
@@ -554,17 +554,17 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>36</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>No Change</t>
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>Increased</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>93346.83399586467</v>
+        <v>81110.33314</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>92962.37255520678</v>
+        <v>87423.87781000001</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>-384.4614406578912</v>
+        <v>6313.544670000003</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>Decreased</t>
+          <t>Increased</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,7 +629,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
     <col width="38" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
   </cols>
@@ -654,15 +654,15 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>BANKS, LENARD</t>
+          <t>MUNOZ, ANA</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
+          <t>PEOPLE FIRST TRANSIT LLC</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -671,15 +671,66 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>GIBBS, SAMUEL</t>
+          <t>SULEIMAN, AHMED</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
+          <t>NEMIA CARE LLC</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Added</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>LARA, DOUGLAS</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
           <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Added</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>MATUECCI, MATT</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>SILVA, PAUL</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -739,13 +790,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>83</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>-5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -755,13 +806,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>1</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="4">
@@ -771,13 +822,13 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>2</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="5">
@@ -787,13 +838,13 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>838</v>
+        <v>785</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>786</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>-52</v>
+        <v>723</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-62</v>
       </c>
     </row>
     <row r="6">
@@ -803,13 +854,13 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="7">
@@ -819,13 +870,13 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>-7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -835,13 +886,13 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>-11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -851,13 +902,13 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>116</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>26</v>
+        <v>92</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -867,13 +918,13 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>107</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>-15</v>
+        <v>104</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-11</v>
       </c>
     </row>
     <row r="11">
@@ -886,10 +937,10 @@
         <v>55</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>84</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>29</v>
+        <v>67</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -899,13 +950,13 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>92</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>-9</v>
+        <v>85</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="13">
@@ -915,13 +966,13 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>246</v>
+        <v>102</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>-7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -931,13 +982,13 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>105</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>-19</v>
+        <v>64</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-22</v>
       </c>
     </row>
     <row r="15">
@@ -947,13 +998,13 @@
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>220</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>36</v>
+        <v>147</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -963,13 +1014,13 @@
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>120</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>-19</v>
+        <v>109</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="17">
@@ -979,13 +1030,13 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>86</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>-30</v>
+        <v>61</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-6</v>
       </c>
     </row>
     <row r="18">
@@ -995,13 +1046,13 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>225</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>0</v>
+        <v>305</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="19">
@@ -1011,12 +1062,12 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>90</v>
-      </c>
-      <c r="D19" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="D19" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1027,13 +1078,13 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>166</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>4</v>
+        <v>136</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1056,9 +1107,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1090,13 +1141,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>90.19</v>
+        <v>70.64100000000001</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>102.901</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>12.711</v>
+        <v>89.92099999999999</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>19.27999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1106,13 +1157,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>94.249</v>
+        <v>84.851</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>92.717</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>-1.531999999999996</v>
+        <v>83.364</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>-1.486999999999995</v>
       </c>
     </row>
     <row r="4">
@@ -1122,13 +1173,13 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>91.634</v>
+        <v>93.381</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>98.834</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>7.200000000000003</v>
+        <v>93.901</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.519999999999996</v>
       </c>
     </row>
     <row r="5">
@@ -1138,13 +1189,13 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>859.323</v>
+        <v>871.8870000000001</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>841.917</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>-17.40599999999995</v>
+        <v>834.388</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-37.49900000000002</v>
       </c>
     </row>
     <row r="6">
@@ -1154,13 +1205,13 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>106.428</v>
+        <v>88.977</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>93.691</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>-12.73699999999999</v>
+        <v>78.367</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-10.61</v>
       </c>
     </row>
     <row r="7">
@@ -1170,13 +1221,13 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>119.749</v>
+        <v>90.20100000000001</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>119.456</v>
+        <v>108.93</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>-0.2929999999999922</v>
+        <v>18.72899999999998</v>
       </c>
     </row>
     <row r="8">
@@ -1186,13 +1237,13 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>108.054</v>
+        <v>94.44800000000001</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>112.497</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>4.442999999999998</v>
+        <v>95.804</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>1.355999999999995</v>
       </c>
     </row>
     <row r="9">
@@ -1202,13 +1253,13 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>82.015</v>
+        <v>28.007</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>103.197</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>21.182</v>
+        <v>87.096</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>59.08900000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1218,13 +1269,13 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>111.383</v>
+        <v>104.567</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>99.76600000000001</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>-11.61699999999999</v>
+        <v>99.383</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.183999999999997</v>
       </c>
     </row>
     <row r="11">
@@ -1234,13 +1285,13 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>62.386</v>
+        <v>83.343</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>85.931</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>23.54499999999999</v>
+        <v>86.126</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>2.783000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -1250,13 +1301,13 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>132.646</v>
+        <v>99.354</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>99.629</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>-33.01699999999998</v>
+        <v>96.14500000000001</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-3.208999999999989</v>
       </c>
     </row>
     <row r="13">
@@ -1266,13 +1317,13 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>167.798</v>
+        <v>90.78700000000001</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>164.165</v>
+        <v>159.629</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>-3.63300000000001</v>
+        <v>68.84199999999998</v>
       </c>
     </row>
     <row r="14">
@@ -1282,13 +1333,13 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>97.66800000000001</v>
+        <v>89.60900000000001</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>98.634</v>
+        <v>67.547</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.965999999999994</v>
+        <v>-22.06200000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1298,13 +1349,13 @@
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>77.301</v>
+        <v>67.339</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>110.425</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>33.124</v>
+        <v>76.372</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>9.033000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1314,13 +1365,13 @@
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>174.113</v>
+        <v>148.593</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>159.764</v>
+        <v>156.282</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>-14.34899999999999</v>
+        <v>7.689000000000021</v>
       </c>
     </row>
     <row r="17">
@@ -1330,13 +1381,13 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>107.912</v>
+        <v>75.423</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>101.404</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>-6.507999999999996</v>
+        <v>65.369</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-10.054</v>
       </c>
     </row>
     <row r="18">
@@ -1346,13 +1397,13 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>245.651</v>
+        <v>309.785</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>232.918</v>
+        <v>355.497</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>-12.733</v>
+        <v>45.71199999999999</v>
       </c>
     </row>
     <row r="19">
@@ -1362,13 +1413,13 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>100.401</v>
+        <v>87.744</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>100</v>
+        <v>88.917</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>-0.4009999999999962</v>
+        <v>1.173000000000002</v>
       </c>
     </row>
     <row r="20">
@@ -1378,13 +1429,13 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>72.63</v>
+        <v>69.054</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>76.776</v>
+        <v>68.233</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>4.146000000000001</v>
+        <v>-0.820999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1441,13 +1492,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>590</v>
+        <v>463.58</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>590</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>0</v>
+      <c r="D2" s="4" t="n">
+        <v>126.42</v>
       </c>
     </row>
     <row r="3">
@@ -1553,13 +1604,13 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>590</v>
+        <v>295</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>590</v>
       </c>
-      <c r="D9" s="3" t="n">
-        <v>0</v>
+      <c r="D9" s="4" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="10">
@@ -1697,10 +1748,10 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1020</v>
+        <v>1450</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>1020</v>
+        <v>1450</v>
       </c>
       <c r="D18" s="3" t="n">
         <v>0</v>

--- a/Payroll Analysis/ComparedResults/Full_Comparison.xlsx
+++ b/Payroll Analysis/ComparedResults/Full_Comparison.xlsx
@@ -37,10 +37,10 @@
       <color rgb="00FFFFFF"/>
     </font>
     <font>
-      <color rgb="00006100"/>
+      <color rgb="009C0006"/>
     </font>
     <font>
-      <color rgb="009C0006"/>
+      <color rgb="00006100"/>
     </font>
   </fonts>
   <fills count="5">
@@ -58,14 +58,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -472,9 +472,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -512,17 +512,17 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>2521</v>
+        <v>3307</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>2642</v>
+        <v>3194</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>121</v>
+        <v>-113</v>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -533,17 +533,17 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>2647.991</v>
+        <v>3060.467</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>2791.271</v>
+        <v>2930.753</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>143.2800000000002</v>
+        <v>-129.7139999999999</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -554,17 +554,17 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>36</v>
-      </c>
       <c r="D4" s="3" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>81110.33314</v>
+        <v>99824.99489740601</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>87423.87781000001</v>
+        <v>94946.59930986843</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>6313.544670000003</v>
+        <v>-4878.395587537583</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,7 +629,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
     <col width="38" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
   </cols>
@@ -654,15 +654,15 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>MUNOZ, ANA</t>
+          <t>SILVA PAUL</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>PEOPLE FIRST TRANSIT LLC</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -671,49 +671,49 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>SULEIMAN, AHMED</t>
+          <t>COLEMAN, SHAWN</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>NEMIA CARE LLC</t>
+          <t>TRULY TRANSPORT LLC</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Added</t>
+          <t>Removed</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>LARA, DOUGLAS</t>
+          <t>SALGUERO, JORGE</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+          <t>TRI VALLEY TRANSPORTATION INC.</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Added</t>
+          <t>Removed</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>MATUECCI, MATT</t>
+          <t>BROWN, JAMES</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
+          <t>TRULY TRANSPORT LLC</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -722,15 +722,66 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
+          <t>DEL CASTILLO, ABEL</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>TRI VALLEY TRANSPORTATION INC.</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>BUFFINGTON, BLAKE</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>TRI VALLEY TRANSPORTATION INC.</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>SAIFON WISETMEE</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>TRI VALLEY TRANSPORTATION INC.</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
           <t>SILVA, PAUL</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -747,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,13 +841,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>16</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="3">
@@ -806,13 +857,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>-21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
@@ -822,13 +873,13 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -838,13 +889,13 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>785</v>
+        <v>943</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>723</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>-62</v>
+        <v>933</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="6">
@@ -854,13 +905,13 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -870,13 +921,13 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>13</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="8">
@@ -886,13 +937,13 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>84</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>4</v>
+        <v>81</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -902,13 +953,13 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>92</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>59</v>
+        <v>121</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -918,13 +969,13 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -934,13 +985,13 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>12</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="12">
@@ -950,13 +1001,13 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>85</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>-5</v>
+        <v>118</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>-8</v>
       </c>
     </row>
     <row r="13">
@@ -966,13 +1017,13 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>185</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>83</v>
+        <v>229</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -982,13 +1033,13 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>64</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>-22</v>
+        <v>104</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>-13</v>
       </c>
     </row>
     <row r="15">
@@ -998,13 +1049,13 @@
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>34</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="16">
@@ -1014,13 +1065,13 @@
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1030,13 +1081,13 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>61</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>-6</v>
+        <v>65</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="18">
@@ -1046,13 +1097,13 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>305</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>51</v>
+        <v>231</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -1062,13 +1113,13 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>2</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="20">
@@ -1078,13 +1129,29 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>134</v>
+        <v>342</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>2</v>
+        <v>-164</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>TRULY TRANSPORT LLC</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>-45</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,9 +1174,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1141,13 +1208,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>70.64100000000001</v>
+        <v>104.02</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>89.92099999999999</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>19.27999999999999</v>
+        <v>104.21</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="3">
@@ -1157,13 +1224,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>84.851</v>
+        <v>55.08</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>83.364</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>-1.486999999999995</v>
+        <v>40.02</v>
       </c>
     </row>
     <row r="4">
@@ -1173,13 +1240,13 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>93.381</v>
+        <v>102.24</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>93.901</v>
+        <v>100.59</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.519999999999996</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="5">
@@ -1189,13 +1256,13 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>871.8870000000001</v>
+        <v>894.1799999999999</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>834.388</v>
+        <v>934.38</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-37.49900000000002</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="6">
@@ -1205,13 +1272,13 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>88.977</v>
+        <v>84.37</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>78.367</v>
+        <v>87.8</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-10.61</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="7">
@@ -1221,13 +1288,13 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>90.20100000000001</v>
+        <v>118.66</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>108.93</v>
+        <v>71.7</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>18.72899999999998</v>
+        <v>-46.96</v>
       </c>
     </row>
     <row r="8">
@@ -1237,13 +1304,13 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>94.44800000000001</v>
+        <v>116.87</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>95.804</v>
+        <v>110.45</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.355999999999995</v>
+        <v>-6.42</v>
       </c>
     </row>
     <row r="9">
@@ -1253,13 +1320,13 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>28.007</v>
+        <v>102.37</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>87.096</v>
+        <v>100.86</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>59.08900000000001</v>
+        <v>-1.51</v>
       </c>
     </row>
     <row r="10">
@@ -1269,13 +1336,13 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>104.567</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>99.383</v>
+        <v>99.67</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-5.183999999999997</v>
+        <v>30.57</v>
       </c>
     </row>
     <row r="11">
@@ -1285,13 +1352,13 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>83.343</v>
+        <v>89.87</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>86.126</v>
+        <v>82.94</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>2.783000000000001</v>
+        <v>-6.93</v>
       </c>
     </row>
     <row r="12">
@@ -1301,13 +1368,13 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>99.354</v>
+        <v>135.82</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>96.14500000000001</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>-3.208999999999989</v>
+        <v>127.25</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>-8.57</v>
       </c>
     </row>
     <row r="13">
@@ -1317,13 +1384,13 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>90.78700000000001</v>
+        <v>126.54</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>159.629</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>68.84199999999998</v>
+        <v>152.55</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>26.01</v>
       </c>
     </row>
     <row r="14">
@@ -1333,13 +1400,13 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>89.60900000000001</v>
+        <v>100.28</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>67.547</v>
+        <v>100.6</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-22.06200000000001</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="15">
@@ -1349,13 +1416,13 @@
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>67.339</v>
+        <v>73.95</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>76.372</v>
+        <v>63.85</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>9.033000000000001</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="16">
@@ -1365,13 +1432,13 @@
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>148.593</v>
+        <v>171.32</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>156.282</v>
+        <v>170.44</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>7.689000000000021</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="17">
@@ -1381,13 +1448,13 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>75.423</v>
+        <v>87.66</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>65.369</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>-10.054</v>
+        <v>64.68000000000001</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>-22.98</v>
       </c>
     </row>
     <row r="18">
@@ -1397,13 +1464,13 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>309.785</v>
+        <v>242.2</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>355.497</v>
+        <v>241.34</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>45.71199999999999</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="19">
@@ -1413,13 +1480,13 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>87.744</v>
+        <v>95.86</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>88.917</v>
+        <v>95.61</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>1.173000000000002</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="20">
@@ -1429,13 +1496,29 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>69.054</v>
+        <v>181.61</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>68.233</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>-0.820999999999998</v>
+        <v>78.09</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>-103.52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>TRULY TRANSPORT LLC</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>108.45</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>48.65</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>-59.8</v>
       </c>
     </row>
   </sheetData>
@@ -1449,7 +1532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1460,7 +1543,7 @@
     <col width="38" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1492,13 +1575,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>463.58</v>
+        <v>590</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>590</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>126.42</v>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1508,13 +1591,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>590</v>
+        <v>295</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>590</v>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>0</v>
+      <c r="D3" s="5" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="4">
@@ -1604,13 +1687,13 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>295</v>
+        <v>590</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>590</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>295</v>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1620,13 +1703,13 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>590</v>
+        <v>295</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>590</v>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>0</v>
+      <c r="D10" s="5" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="11">
@@ -1668,13 +1751,13 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>1180</v>
+        <v>885</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>1180</v>
       </c>
-      <c r="D13" s="3" t="n">
-        <v>0</v>
+      <c r="D13" s="5" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="14">
@@ -1748,10 +1831,10 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1450</v>
+        <v>1020</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>1450</v>
+        <v>1020</v>
       </c>
       <c r="D18" s="3" t="n">
         <v>0</v>
@@ -1764,28 +1847,44 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>416.72</v>
+        <v>1041.78</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>416.72</v>
       </c>
-      <c r="D19" s="3" t="n">
-        <v>0</v>
+      <c r="D19" s="4" t="n">
+        <v>-625.0599999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
+          <t>TRULY TRANSPORT LLC</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>295</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>-295</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
           <t>Transit LTM LLC</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
-        <v>590</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>590</v>
-      </c>
-      <c r="D20" s="3" t="n">
+      <c r="B21" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D21" s="3" t="n">
         <v>0</v>
       </c>
     </row>
